--- a/NetworkProperties.xlsx
+++ b/NetworkProperties.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sengu\Dropbox\PC\Desktop\SFSU_MasterThesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{828E7AEB-070A-4D24-B305-8E863F035E87}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E21F642D-3EF6-49E7-8FB2-8BE86C9C6758}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-93" yWindow="-93" windowWidth="20186" windowHeight="12920" xr2:uid="{85DAF7C4-DC29-4B6C-9929-790F0C23B76D}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
   <si>
     <t>Type</t>
   </si>
@@ -153,12 +153,18 @@
     <t>Clustering coefficient 
 (Transitivity)</t>
   </si>
+  <si>
+    <t>Returns the eigenvector centralities of positions v within a given graph</t>
+  </si>
+  <si>
+    <t>A centralization measure</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -185,6 +191,13 @@
       <b/>
       <sz val="12"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -317,7 +330,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -331,6 +344,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -360,11 +379,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1084,6 +1100,182 @@
         <a:xfrm>
           <a:off x="5545668" y="5439833"/>
           <a:ext cx="499532" cy="463595"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>61147</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>63184</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1707444</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>482659</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="Picture 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D90F8CB8-A442-078E-7A7A-700DE74854E6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId17"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3226739" y="5227851"/>
+          <a:ext cx="1646297" cy="419475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>454933</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>23518</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1019651</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>459492</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="Picture 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3EFB317D-840B-73D5-6033-A61D9772F394}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5365600" y="5188185"/>
+          <a:ext cx="564718" cy="435974"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>108186</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>54782</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1527771</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>498592</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="Picture 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F15F7EE-81DD-87DA-C435-821B66694042}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId19"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3273778" y="5765079"/>
+          <a:ext cx="1419585" cy="443810"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>395112</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>42334</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>968964</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>471330</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="Picture 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{765E76A8-28F2-3FC8-DA67-9D200A1A9818}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId20"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5305779" y="5752631"/>
+          <a:ext cx="573852" cy="428996"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1394,39 +1586,39 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B669094E-054F-46F2-AA1B-14F00F32A9FF}">
   <dimension ref="A1:E16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="18.87890625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.41015625" customWidth="1"/>
     <col min="2" max="2" width="18.52734375" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="6.52734375" customWidth="1"/>
-    <col min="4" max="4" width="23.05859375" customWidth="1"/>
+    <col min="4" max="4" width="24.234375" customWidth="1"/>
     <col min="5" max="5" width="22.5859375" customWidth="1"/>
     <col min="11" max="11" width="8.9375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="1" customFormat="1" ht="21.45" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="8" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="47.35" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="7" t="s">
         <v>4</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -1439,7 +1631,7 @@
       <c r="E2" s="3"/>
     </row>
     <row r="3" spans="1:5" ht="36.35" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="7" t="s">
         <v>5</v>
       </c>
       <c r="B3" s="2" t="s">
@@ -1452,7 +1644,7 @@
       <c r="E3" s="3"/>
     </row>
     <row r="4" spans="1:5" ht="44.35" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="7" t="s">
         <v>6</v>
       </c>
       <c r="B4" s="2" t="s">
@@ -1465,36 +1657,36 @@
       <c r="E4" s="3"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="B5" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="8"/>
-      <c r="D5" s="8"/>
-      <c r="E5" s="9"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10"/>
+      <c r="E5" s="11"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="10"/>
-      <c r="C6" s="11"/>
-      <c r="D6" s="11"/>
-      <c r="E6" s="12"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="14"/>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B7" s="13"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
-      <c r="E7" s="15"/>
+      <c r="B7" s="15"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
+      <c r="E7" s="17"/>
     </row>
     <row r="8" spans="1:5" ht="38" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="7" t="s">
         <v>10</v>
       </c>
       <c r="B8" s="2" t="s">
@@ -1507,7 +1699,7 @@
       <c r="E8" s="3"/>
     </row>
     <row r="9" spans="1:5" ht="42.7" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="7" t="s">
         <v>11</v>
       </c>
       <c r="B9" s="2" t="s">
@@ -1520,7 +1712,7 @@
       <c r="E9" s="3"/>
     </row>
     <row r="10" spans="1:5" ht="43.35" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="7" t="s">
         <v>12</v>
       </c>
       <c r="B10" s="2" t="s">
@@ -1533,7 +1725,7 @@
       <c r="E10" s="3"/>
     </row>
     <row r="11" spans="1:5" ht="43" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A11" s="16" t="s">
+      <c r="A11" s="7" t="s">
         <v>13</v>
       </c>
       <c r="B11" s="4" t="s">
@@ -1546,7 +1738,7 @@
       <c r="E11" s="3"/>
     </row>
     <row r="12" spans="1:5" ht="46.7" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A12" s="16" t="s">
+      <c r="A12" s="7" t="s">
         <v>14</v>
       </c>
       <c r="B12" s="2" t="s">
@@ -1558,8 +1750,8 @@
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A13" s="16" t="s">
+    <row r="13" spans="1:5" ht="43" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A13" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B13" s="2" t="s">
@@ -1571,8 +1763,8 @@
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A14" s="16" t="s">
+    <row r="14" spans="1:5" ht="40.35" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A14" s="7" t="s">
         <v>16</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -1584,8 +1776,8 @@
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A15" s="16" t="s">
+    <row r="15" spans="1:5" ht="42" x14ac:dyDescent="0.5">
+      <c r="A15" s="7" t="s">
         <v>17</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -1594,18 +1786,22 @@
       <c r="C15" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D15" s="3"/>
+      <c r="D15" s="18" t="s">
+        <v>34</v>
+      </c>
       <c r="E15" s="3"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.5">
-      <c r="A16" s="16" t="s">
+      <c r="A16" s="7" t="s">
         <v>18</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D16" s="3"/>
+      <c r="D16" s="3" t="s">
+        <v>35</v>
+      </c>
       <c r="E16" s="3"/>
     </row>
   </sheetData>
